--- a/biology/Médecine/Syndrome_de_réponse_inflammatoire_systémique/Syndrome_de_réponse_inflammatoire_systémique.xlsx
+++ b/biology/Médecine/Syndrome_de_réponse_inflammatoire_systémique/Syndrome_de_réponse_inflammatoire_systémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_r%C3%A9ponse_inflammatoire_syst%C3%A9mique</t>
+          <t>Syndrome_de_réponse_inflammatoire_systémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Syndrome de réponse inflammatoire systémique, ou SRIS, est un syndrome clinique correspondant à la réponse inflammatoire systémique à certaines agressions cliniques graves comme un état infectieux, un état de choc ou un traumatisme.
 Il remonte à la classification des états septiques adoptée en 1992 basée sur l'intensité de la réponse de l'organisme à l'infection.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_r%C3%A9ponse_inflammatoire_syst%C3%A9mique</t>
+          <t>Syndrome_de_réponse_inflammatoire_systémique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Pathologies non infectieuses potentiellement associées à un SRIS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Devant un malade présentant un SRIS, il faut s’efforcer de rechercher l'infection, mais il faut également éliminer d'autres causes non infectieuses de ce syndrome :
 Agression tissulaire : pancréatite aiguë, infarctus tissulaire (myocarde, pulmonaire, mésentère), maladie thrombo-embolique, érythrodermie, Hémorragie méningée, rejet de greffe, chirurgie majeure – traumatisme – hématomes
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_r%C3%A9ponse_inflammatoire_syst%C3%A9mique</t>
+          <t>Syndrome_de_réponse_inflammatoire_systémique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation des critères du SRIS pour dépister un état septique sévère de façon précoce a toutefois des limites, surtout chez les malades en réanimation :
 les critères sont tellement larges qu’ils n’ont aucune spécificité, ainsi en réanimation, 80 % des malades ont ces critères.
